--- a/data/trans_dic/P33b_R3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R3-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,6; 31,66</t>
+          <t>25,14; 31,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,84; 41,59</t>
+          <t>35,99; 41,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>32,57; 37,08</t>
+          <t>32,46; 37,12</t>
         </is>
       </c>
     </row>
@@ -629,12 +629,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,23; 15,51</t>
+          <t>11,96; 15,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,27; 18,92</t>
+          <t>14,54; 18,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,19; 16,16</t>
+          <t>10,14; 16,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,32; 17,01</t>
+          <t>12,24; 17,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,0; 15,54</t>
+          <t>11,97; 15,75</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,33; 17,29</t>
+          <t>14,27; 17,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,43; 22,82</t>
+          <t>19,41; 22,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,76; 19,74</t>
+          <t>17,6; 19,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R3-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,14; 31,72</t>
+          <t>24,6; 31,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,99; 41,76</t>
+          <t>35,84; 41,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>32,46; 37,12</t>
+          <t>32,57; 37,08</t>
         </is>
       </c>
     </row>
@@ -629,12 +629,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,96; 15,41</t>
+          <t>12,23; 15,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,54; 18,91</t>
+          <t>14,27; 18,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,14; 16,22</t>
+          <t>10,19; 16,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,24; 17,09</t>
+          <t>12,32; 17,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,97; 15,75</t>
+          <t>12,0; 15,54</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,27; 17,22</t>
+          <t>14,33; 17,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,41; 22,94</t>
+          <t>19,43; 22,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,6; 19,77</t>
+          <t>17,76; 19,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R3-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>28,17%</t>
+          <t>27,14%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>38,82%</t>
+          <t>37,76%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>34,62%</t>
+          <t>33,45%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,6; 31,66</t>
+          <t>23,61; 30,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,84; 41,59</t>
+          <t>34,89; 40,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>32,57; 37,08</t>
+          <t>31,42; 35,72</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>15,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>13,95%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,23; 15,51</t>
+          <t>8,83; 14,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,27; 18,92</t>
+          <t>10,85; 18,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,98; 16,69</t>
+          <t>11,1; 15,64</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>13,54%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,19; 16,16</t>
+          <t>10,1; 16,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,32; 17,01</t>
+          <t>12,23; 16,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,0; 15,54</t>
+          <t>11,92; 15,46</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>20,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>17,36%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,33; 17,29</t>
+          <t>11,03; 16,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,43; 22,82</t>
+          <t>16,39; 21,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,76; 19,74</t>
+          <t>14,76; 18,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R3-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,61; 30,54</t>
+          <t>23,98; 30,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>34,89; 40,33</t>
+          <t>35,34; 40,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,42; 35,72</t>
+          <t>31,31; 35,59</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,83; 14,29</t>
+          <t>8,68; 14,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,85; 18,15</t>
+          <t>11,67; 18,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,1; 15,64</t>
+          <t>10,93; 15,67</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,1; 16,28</t>
+          <t>9,83; 15,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,23; 16,83</t>
+          <t>12,3; 17,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,92; 15,46</t>
+          <t>11,84; 15,58</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,03; 16,21</t>
+          <t>11,18; 16,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,39; 21,97</t>
+          <t>16,09; 21,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,76; 18,52</t>
+          <t>15,14; 18,76</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se despierta demasiado temprano (de forma involuntaria)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>738</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>139748</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>284430</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>424178</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>123474; 157596</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>266156; 307311</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>397025; 451290</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>278471</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>353280</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>631751</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>198735; 329371</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>261154; 406543</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>494614; 709437</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>81951</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>94845</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>176795</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>63436; 100108</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>81253; 113673</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>154662; 203445</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1278</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1872</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>500169</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>732555</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1232724</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>385719; 557425</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>587444; 799445</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1074983; 1332384</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>